--- a/project7/all_stores_sale.xlsx
+++ b/project7/all_stores_sale.xlsx
@@ -364,6 +364,11 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
@@ -389,6 +394,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2012-03-01</t>
         </is>
       </c>
@@ -414,6 +424,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2012-04-01</t>
         </is>
       </c>
@@ -439,6 +454,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2012-05-01</t>
         </is>
       </c>
@@ -464,6 +484,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2012-06-01</t>
         </is>
       </c>
@@ -489,6 +514,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2012-07-01</t>
         </is>
       </c>
@@ -514,6 +544,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2012-08-01</t>
         </is>
       </c>
@@ -539,6 +574,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>2012-09-01</t>
         </is>
       </c>
@@ -564,6 +604,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>2012-10-01</t>
         </is>
       </c>
@@ -589,6 +634,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>2012-11-01</t>
         </is>
       </c>
@@ -614,6 +664,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2012-12-01</t>
         </is>
       </c>
@@ -639,6 +694,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2013-01-01</t>
         </is>
       </c>
@@ -664,6 +724,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2013-02-01</t>
         </is>
       </c>
@@ -689,6 +754,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>2013-03-01</t>
         </is>
       </c>
@@ -714,6 +784,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2013-04-01</t>
         </is>
       </c>
@@ -739,6 +814,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2013-05-01</t>
         </is>
       </c>
@@ -764,6 +844,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2013-06-01</t>
         </is>
       </c>
@@ -789,6 +874,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2013-07-01</t>
         </is>
       </c>
@@ -814,6 +904,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2013-08-01</t>
         </is>
       </c>
@@ -839,6 +934,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2013-09-01</t>
         </is>
       </c>
@@ -864,6 +964,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2013-10-01</t>
         </is>
       </c>
@@ -889,6 +994,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>2013-11-01</t>
         </is>
       </c>
@@ -914,6 +1024,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>2013-12-01</t>
         </is>
       </c>
@@ -939,6 +1054,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>2014-01-01</t>
         </is>
       </c>
@@ -964,6 +1084,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>2014-02-01</t>
         </is>
       </c>
@@ -989,6 +1114,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>2014-03-01</t>
         </is>
       </c>
@@ -1014,6 +1144,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>2014-04-01</t>
         </is>
       </c>
@@ -1039,6 +1174,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>2014-05-01</t>
         </is>
       </c>
@@ -1064,6 +1204,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>2014-06-01</t>
         </is>
       </c>
@@ -1089,6 +1234,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>2014-07-01</t>
         </is>
       </c>
@@ -1114,6 +1264,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>2014-08-01</t>
         </is>
       </c>
@@ -1139,6 +1294,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>2014-09-01</t>
         </is>
       </c>
@@ -1164,6 +1324,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>2014-10-01</t>
         </is>
       </c>
@@ -1189,6 +1354,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>2014-11-01</t>
         </is>
       </c>
@@ -1214,6 +1384,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>2014-12-01</t>
         </is>
       </c>
@@ -1239,6 +1414,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>2015-01-01</t>
         </is>
       </c>
@@ -1264,6 +1444,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>2015-02-01</t>
         </is>
       </c>
@@ -1289,6 +1474,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>2015-03-01</t>
         </is>
       </c>
@@ -1314,6 +1504,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>2015-04-01</t>
         </is>
       </c>
@@ -1339,6 +1534,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>2015-05-01</t>
         </is>
       </c>
@@ -1364,6 +1564,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>2015-06-01</t>
         </is>
       </c>
@@ -1389,6 +1594,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>2015-07-01</t>
         </is>
       </c>
@@ -1414,6 +1624,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>2015-08-01</t>
         </is>
       </c>
@@ -1439,6 +1654,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>2015-09-01</t>
         </is>
       </c>
@@ -1464,6 +1684,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>2015-10-01</t>
         </is>
       </c>
@@ -1489,6 +1714,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>2015-11-01</t>
         </is>
       </c>
@@ -1514,6 +1744,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>2015-12-01</t>
         </is>
       </c>
@@ -1530,7 +1765,7 @@
         </is>
       </c>
       <c r="C48" s="0">
-        <v>73767869.2583395</v>
+        <v>2761958</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1538,6 +1773,11 @@
         </is>
       </c>
       <c r="E48" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
@@ -1555,7 +1795,7 @@
         </is>
       </c>
       <c r="C49" s="0">
-        <v>70810961.6637931</v>
+        <v>2656665.25</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1563,6 +1803,11 @@
         </is>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>2016-02-01</t>
         </is>
@@ -1580,7 +1825,7 @@
         </is>
       </c>
       <c r="C50" s="0">
-        <v>81482367.5543953</v>
+        <v>3099057.75</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1588,6 +1833,11 @@
         </is>
       </c>
       <c r="E50" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>2016-03-01</t>
         </is>
@@ -1605,7 +1855,7 @@
         </is>
       </c>
       <c r="C51" s="0">
-        <v>76065495.0832936</v>
+        <v>2873607.25</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1613,6 +1863,11 @@
         </is>
       </c>
       <c r="E51" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>2016-04-01</t>
         </is>
@@ -1630,7 +1885,7 @@
         </is>
       </c>
       <c r="C52" s="0">
-        <v>88525052.9602224</v>
+        <v>3327835.25</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1638,6 +1893,11 @@
         </is>
       </c>
       <c r="E52" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>2016-05-01</t>
         </is>
@@ -1655,7 +1915,7 @@
         </is>
       </c>
       <c r="C53" s="0">
-        <v>88214899.4710785</v>
+        <v>3356062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1663,6 +1923,11 @@
         </is>
       </c>
       <c r="E53" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>2016-06-01</t>
         </is>
@@ -1680,7 +1945,7 @@
         </is>
       </c>
       <c r="C54" s="0">
-        <v>86534591.1253017</v>
+        <v>3391942.75</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1688,6 +1953,11 @@
         </is>
       </c>
       <c r="E54" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>2016-07-01</t>
         </is>
@@ -1705,7 +1975,7 @@
         </is>
       </c>
       <c r="C55" s="0">
-        <v>77097065.0049704</v>
+        <v>2991382.5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1713,6 +1983,11 @@
         </is>
       </c>
       <c r="E55" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>2016-08-01</t>
         </is>
@@ -1730,7 +2005,7 @@
         </is>
       </c>
       <c r="C56" s="0">
-        <v>66983263.6157956</v>
+        <v>2664295.25</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1738,6 +2013,11 @@
         </is>
       </c>
       <c r="E56" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>2016-09-01</t>
         </is>
@@ -1755,7 +2035,7 @@
         </is>
       </c>
       <c r="C57" s="0">
-        <v>68126093.2326752</v>
+        <v>2588209.75</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1763,6 +2043,11 @@
         </is>
       </c>
       <c r="E57" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
@@ -1780,7 +2065,7 @@
         </is>
       </c>
       <c r="C58" s="0">
-        <v>70369812.4278593</v>
+        <v>2702838.25</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1788,6 +2073,11 @@
         </is>
       </c>
       <c r="E58" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>2016-11-01</t>
         </is>
@@ -1805,7 +2095,7 @@
         </is>
       </c>
       <c r="C59" s="0">
-        <v>68705027.1421095</v>
+        <v>2761943.25</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1813,6 +2103,11 @@
         </is>
       </c>
       <c r="E59" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>2016-12-01</t>
         </is>
@@ -1830,7 +2125,7 @@
         </is>
       </c>
       <c r="C60" s="0">
-        <v>22016606.8109407</v>
+        <v>21539936.0074994</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1838,6 +2133,11 @@
         </is>
       </c>
       <c r="E60" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
@@ -1855,7 +2155,7 @@
         </is>
       </c>
       <c r="C61" s="0">
-        <v>20870321.9554186</v>
+        <v>20413770.6013595</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1863,6 +2163,11 @@
         </is>
       </c>
       <c r="E61" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>2016-02-01</t>
         </is>
@@ -1880,7 +2185,7 @@
         </is>
       </c>
       <c r="C62" s="0">
-        <v>24045144.139261</v>
+        <v>24325953.0976278</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1888,6 +2193,11 @@
         </is>
       </c>
       <c r="E62" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>2016-03-01</t>
         </is>
@@ -1905,7 +2215,7 @@
         </is>
       </c>
       <c r="C63" s="0">
-        <v>22401006.6083678</v>
+        <v>22993466.3485849</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1913,6 +2223,11 @@
         </is>
       </c>
       <c r="E63" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>2016-04-01</t>
         </is>
@@ -1930,7 +2245,7 @@
         </is>
       </c>
       <c r="C64" s="0">
-        <v>26134594.6704716</v>
+        <v>26691951.4191559</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1938,6 +2253,11 @@
         </is>
       </c>
       <c r="E64" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>2016-05-01</t>
         </is>
@@ -1955,7 +2275,7 @@
         </is>
       </c>
       <c r="C65" s="0">
-        <v>25975297.4338319</v>
+        <v>26989964.0105518</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1963,6 +2283,11 @@
         </is>
       </c>
       <c r="E65" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>2016-06-01</t>
         </is>
@@ -1980,7 +2305,7 @@
         </is>
       </c>
       <c r="C66" s="0">
-        <v>25319113.8244152</v>
+        <v>26948630.7647638</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1988,6 +2313,11 @@
         </is>
       </c>
       <c r="E66" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>2016-07-01</t>
         </is>
@@ -2005,7 +2335,7 @@
         </is>
       </c>
       <c r="C67" s="0">
-        <v>22614678.4558968</v>
+        <v>24091579.3491059</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2013,6 +2343,11 @@
         </is>
       </c>
       <c r="E67" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>2016-08-01</t>
         </is>
@@ -2030,7 +2365,7 @@
         </is>
       </c>
       <c r="C68" s="0">
-        <v>19576596.3501696</v>
+        <v>20523492.4086428</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2038,6 +2373,11 @@
         </is>
       </c>
       <c r="E68" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>2016-09-01</t>
         </is>
@@ -2055,7 +2395,7 @@
         </is>
       </c>
       <c r="C69" s="0">
-        <v>20081244.0178079</v>
+        <v>20011748.6685998</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2063,6 +2403,11 @@
         </is>
       </c>
       <c r="E69" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
@@ -2080,7 +2425,7 @@
         </is>
       </c>
       <c r="C70" s="0">
-        <v>20662709.3257462</v>
+        <v>21177435.4858385</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2088,6 +2433,11 @@
         </is>
       </c>
       <c r="E70" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>2016-11-01</t>
         </is>
@@ -2105,7 +2455,7 @@
         </is>
       </c>
       <c r="C71" s="0">
-        <v>19964212.8698589</v>
+        <v>20855799.1096099</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2113,6 +2463,11 @@
         </is>
       </c>
       <c r="E71" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>2016-12-01</t>
         </is>
